--- a/Task 2 mine.xlsx
+++ b/Task 2 mine.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/privategit/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="AT ROI" sheetId="2" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Number of Releases to invest in automation</t>
   </si>
@@ -913,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1216,6 +1216,16 @@
       </c>
       <c r="F14" s="11"/>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
